--- a/df_list_20250220.xlsx
+++ b/df_list_20250220.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="456">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -1003,16 +1003,398 @@
   </si>
   <si>
     <t>2025년 창녕군 산림교육(숲해설, 유아숲교육) 위탁운영사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 평가위원(후보자)  모집 공고(대구농수산물도매시장 이전 예타대응 연구용역)</t>
+  </si>
+  <si>
+    <t>「서대구역네거리~평리네거리 송수관 정비공사」갱생공법 선정을 위한 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>경남고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gyeongnam.go.kr/index.gyeong?menuCd=DOM_000000135003009001&amp;pageLine=90</t>
+  </si>
+  <si>
+    <t>제3회 청년 버스킹 경연대회 운영 용역 제안서 평가위원회 예비위원 모집</t>
+  </si>
+  <si>
+    <t>경상남도 섬 발전종합계획 제안서 평가위원(후보자) 모집</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>「광명역사문화박물관 타당성 조사 및 기본계획 수립 용역」제안서 정성 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>「2025년 DMZ 평화의 길 테마노선 및 쉼터 연계 프로그램 운영 용역」제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>김포시 제안제도 명칭 공모전 공고</t>
+  </si>
+  <si>
+    <t>A073</t>
+  </si>
+  <si>
+    <t>경기도_양평군</t>
+  </si>
+  <si>
+    <t>https://www.yp21.go.kr/www/selectBbsNttList.do?bbsNo=5&amp;key=1119&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>2025년 마을공동체 주민제안공모사업 (공간조성분야) 재공고</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전주시 지방산업입지심의회 위원 공개모집 공고 및 등록안내</t>
+  </si>
+  <si>
+    <t>전주시 출자출연기관 운영심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>「전주시보건소 청사 신축 타당성 조사 및 기본구상 용역」제안서 평가위원(...</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>경산시 공식 SNS 운영용역 제안서 평가위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>「성곡댐 생태관광벨트 조성사업」공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 재공고(2025년 청도군 유튜브 운영 및 콘텐츠 제작)</t>
+  </si>
+  <si>
+    <t>청도군 정책연구용역심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A178</t>
+  </si>
+  <si>
+    <t>경상도_청송군</t>
+  </si>
+  <si>
+    <t>https://www.cs.go.kr/news/00002679/00006203.web</t>
+  </si>
+  <si>
+    <t>청송군 농촌공간 재구조화 및 재생 기본계획 수립 용역 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년도 수요특강 모닝인사이트 운영 위탁 용역 제안공모 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>2025년 칠곡아카데미 운영 위탁 용역 제안서평가 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>신기술·특허공법 선정 최종평가 결과 공고(한국냉장 앞 고가차도 보수·보강공사)</t>
+  </si>
+  <si>
+    <t>제3처리장 2차침전지 보수공사 특정공법 선정 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(2025년 AI활용 역량강화 교육)</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
+  </si>
+  <si>
+    <t>온천5호교 재가설(확장) 공사 신기술·특허 공법 선정 기술제안서 제출 안내 재공고</t>
+  </si>
+  <si>
+    <t>「광주시립수목원 전시온실 공간연출 및 연출물 제작·설치 용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(클라우드 전환 ISP수립)</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>2025년 인구문제 인식개선 사업 용역 제안서평가 예비위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>경기도농업기술원 「경기도 농산물 소득조사 용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>경기도농업기술원 「경기 북부지역 콩 생산과 유통 실태 조사 용역」 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>경기도농업기술원「친환경농산물 소득조사 및 경영진단지표 개발 용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>「달맞이꽃 뇌질환개선 효능물질 발굴 연구용역」 제안서 평가위원회 예비평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 경상북도 보육정책위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>경기도_평택시</t>
+  </si>
+  <si>
+    <t>https://www.pyeongtaek.go.kr/pyeongtaek/saeol/gosiList.do?seCode=01&amp;mId=0401020000</t>
+  </si>
+  <si>
+    <t>2025년 제5회 기술자문위원회 공법심의 결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고『평택아트센터 건립공사 무대조명 설비구매・설치』</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-533호「2025년 포천시 어린이날 축제 대행 용역」제안서 평가위원회 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>자연재해위험개선지구(섬석천지구) 정비사업 가설교량 특정공법(신기술·특허...</t>
+  </si>
+  <si>
+    <t>자연재해위험개선지구(섬석천지구) 정비사업 교량 특정공법(신기술·특허) 선...</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>강원도_원주시</t>
+  </si>
+  <si>
+    <t>https://www.wonju.go.kr/www/selectBbsNttList.do?bbsNo=140&amp;key=216&amp;pageUnit=40</t>
+  </si>
+  <si>
+    <t>원주시 어린이 복합체험관내 실내놀이터 설치 제안서 평가위원(후보자) 모집 (변경)공고NEW</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
+    <t>강원도_양구군</t>
+  </si>
+  <si>
+    <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
+  </si>
+  <si>
+    <t>[양구군 공고 제2025-271호] 양구군 주민참여예산 군민제안사업 공모 공고</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>강원도_양양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>2025년 양양군 보육정책위원회 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.yw.go.kr/www/selectBbsNttList.do?bbsNo=17&amp;key=273&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>영월군 도로기반 지하시설물 전산화사업(무릉도원면) 제안서 평가위원(후보자) 모집공고새글</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=6</t>
+  </si>
+  <si>
+    <t>청주시 경관기본계획 재정비 용역 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>싯계교 내진보강공사 신기술·특허공법(교량인상공법) 선정 기술제안서 제출 ...</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>충청도_음성군</t>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/www/selectEminwonList.do?key=80&amp;pageUnit=10&amp;ofr_pageSize=10&amp;amp;not_ancmt_se_code=01,02,03,04,05&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>특정공법(물품) 선정을 위한 제안서 제출 안내 공고[삼성시장 증발냉방장치...</t>
+  </si>
+  <si>
+    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=3</t>
+  </si>
+  <si>
+    <t>2025 천안 K-컬처박람회 운영대행 용역 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>전라도_김제시</t>
+  </si>
+  <si>
+    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>김제시 도심권 야간경관 조성사업 특허자재 공법선정을 위한 기술제안서 제출안내 재공..</t>
+  </si>
+  <si>
+    <t>도심권 야간경관 조성사업 특허자재 공법선정을 위한 기술제안서 제출안내 재공고</t>
+  </si>
+  <si>
+    <t>도시재생뉴딜사업(공기업제안형) '2025 정읍품애(愛) 클래식 아카데미'...</t>
+  </si>
+  <si>
+    <t>제안서(협상계약) 평가결과 공고(무주 태권브이랜드 로봇 격납고)</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=1</t>
+  </si>
+  <si>
+    <t>2025년 목포시 산림교육(숲해설, 유아숲교육) 위탁운영 제안서..새로운글</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=1</t>
+  </si>
+  <si>
+    <t>「여수시 시내버스 노선체계 개편 용역」  제안서 평가결과 공고새로운글</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>경상도_안동시</t>
+  </si>
+  <si>
+    <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
+  </si>
+  <si>
+    <t>안동 농산물 통합브랜드 및 포장재 개발 용역 제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>경상도_영주시</t>
+  </si>
+  <si>
+    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>「2025년 너랑나랑 유아숲체험원 위탁운영」 제안서 평가위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>가조지구 급경사지 붕괴위험지역 정비사업 제안서 평가위원(후보자) 공개 모집 공고</t>
+  </si>
+  <si>
+    <t>가조지구 급경사지 붕괴위험지역 정비사업 특정공법 제안 공고</t>
+  </si>
+  <si>
+    <t>A187</t>
+  </si>
+  <si>
+    <t>경상도_김해시</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>「김해시 공무직 직무・임금체계 개선 연구용역」 제안서 평가위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1034,6 +1416,17 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1064,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1075,6 +1468,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,7 +1697,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="4" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="18.86"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3575,110 +3982,2086 @@
         <v>45708.53524305556</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F122" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F123" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F125" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F126" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F127" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F136" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F137" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F138" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F139" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F140" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F141" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F142" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F143" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F144" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F145" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F146" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F147" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F148" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F149" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F150" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F151" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F152" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F153" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F154" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F155" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F156" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F157" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F158" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F159" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F160" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F161" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F162" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F163" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F164" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F165" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F166" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F167" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F168" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F169" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F170" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F171" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F172" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F173" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F174" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F175" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F176" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F177" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F178" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F179" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F180" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F181" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F182" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F183" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F184" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F185" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F186" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F187" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F188" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F189" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F190" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F191" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F192" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F193" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F194" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F195" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F196" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F197" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F198" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F199" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F200" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F201" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F202" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F203" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F204" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F205" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F206" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F207" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F208" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F209" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45707.0</v>
+      </c>
+      <c r="F210" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F211" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45709.0</v>
+      </c>
+      <c r="F212" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F213" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F214" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F215" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F216" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F217" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45708.0</v>
+      </c>
+      <c r="F218" s="8">
+        <v>45709.1878125</v>
+      </c>
+    </row>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
@@ -4462,9 +6845,115 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C115"/>
+    <hyperlink r:id="rId2" ref="C116"/>
+    <hyperlink r:id="rId3" ref="C117"/>
+    <hyperlink r:id="rId4" ref="C118"/>
+    <hyperlink r:id="rId5" ref="C119"/>
+    <hyperlink r:id="rId6" ref="C120"/>
+    <hyperlink r:id="rId7" ref="C121"/>
+    <hyperlink r:id="rId8" ref="C122"/>
+    <hyperlink r:id="rId9" ref="C123"/>
+    <hyperlink r:id="rId10" ref="C124"/>
+    <hyperlink r:id="rId11" ref="C125"/>
+    <hyperlink r:id="rId12" ref="C126"/>
+    <hyperlink r:id="rId13" ref="C127"/>
+    <hyperlink r:id="rId14" ref="C128"/>
+    <hyperlink r:id="rId15" ref="C129"/>
+    <hyperlink r:id="rId16" ref="C130"/>
+    <hyperlink r:id="rId17" ref="C131"/>
+    <hyperlink r:id="rId18" ref="C132"/>
+    <hyperlink r:id="rId19" location="list/1" ref="C133"/>
+    <hyperlink r:id="rId20" location="list/1" ref="C134"/>
+    <hyperlink r:id="rId21" location="list/1" ref="C135"/>
+    <hyperlink r:id="rId22" location="list/1" ref="C136"/>
+    <hyperlink r:id="rId23" location="list/1" ref="C137"/>
+    <hyperlink r:id="rId24" ref="C138"/>
+    <hyperlink r:id="rId25" ref="C139"/>
+    <hyperlink r:id="rId26" ref="C140"/>
+    <hyperlink r:id="rId27" ref="C141"/>
+    <hyperlink r:id="rId28" ref="C142"/>
+    <hyperlink r:id="rId29" ref="C143"/>
+    <hyperlink r:id="rId30" ref="C144"/>
+    <hyperlink r:id="rId31" ref="C145"/>
+    <hyperlink r:id="rId32" ref="C146"/>
+    <hyperlink r:id="rId33" location="page=2" ref="C147"/>
+    <hyperlink r:id="rId34" location="page=2" ref="C148"/>
+    <hyperlink r:id="rId35" location="page=2" ref="C149"/>
+    <hyperlink r:id="rId36" location="page=2" ref="C150"/>
+    <hyperlink r:id="rId37" ref="C151"/>
+    <hyperlink r:id="rId38" ref="C152"/>
+    <hyperlink r:id="rId39" ref="C153"/>
+    <hyperlink r:id="rId40" ref="C154"/>
+    <hyperlink r:id="rId41" ref="C155"/>
+    <hyperlink r:id="rId42" ref="C156"/>
+    <hyperlink r:id="rId43" ref="C157"/>
+    <hyperlink r:id="rId44" ref="C158"/>
+    <hyperlink r:id="rId45" ref="C159"/>
+    <hyperlink r:id="rId46" ref="C160"/>
+    <hyperlink r:id="rId47" ref="C161"/>
+    <hyperlink r:id="rId48" ref="C162"/>
+    <hyperlink r:id="rId49" ref="C163"/>
+    <hyperlink r:id="rId50" ref="C164"/>
+    <hyperlink r:id="rId51" ref="C165"/>
+    <hyperlink r:id="rId52" ref="C166"/>
+    <hyperlink r:id="rId53" ref="C167"/>
+    <hyperlink r:id="rId54" ref="C168"/>
+    <hyperlink r:id="rId55" ref="C169"/>
+    <hyperlink r:id="rId56" ref="C170"/>
+    <hyperlink r:id="rId57" ref="C171"/>
+    <hyperlink r:id="rId58" ref="C172"/>
+    <hyperlink r:id="rId59" ref="C173"/>
+    <hyperlink r:id="rId60" ref="C174"/>
+    <hyperlink r:id="rId61" ref="C175"/>
+    <hyperlink r:id="rId62" ref="C176"/>
+    <hyperlink r:id="rId63" ref="C177"/>
+    <hyperlink r:id="rId64" ref="C178"/>
+    <hyperlink r:id="rId65" ref="C179"/>
+    <hyperlink r:id="rId66" ref="C180"/>
+    <hyperlink r:id="rId67" ref="C181"/>
+    <hyperlink r:id="rId68" ref="C182"/>
+    <hyperlink r:id="rId69" ref="C183"/>
+    <hyperlink r:id="rId70" ref="C184"/>
+    <hyperlink r:id="rId71" ref="C185"/>
+    <hyperlink r:id="rId72" ref="C186"/>
+    <hyperlink r:id="rId73" ref="C187"/>
+    <hyperlink r:id="rId74" ref="C188"/>
+    <hyperlink r:id="rId75" ref="C189"/>
+    <hyperlink r:id="rId76" ref="C190"/>
+    <hyperlink r:id="rId77" ref="C191"/>
+    <hyperlink r:id="rId78" ref="C192"/>
+    <hyperlink r:id="rId79" ref="C193"/>
+    <hyperlink r:id="rId80" ref="C194"/>
+    <hyperlink r:id="rId81" ref="C195"/>
+    <hyperlink r:id="rId82" ref="C196"/>
+    <hyperlink r:id="rId83" ref="C197"/>
+    <hyperlink r:id="rId84" ref="C198"/>
+    <hyperlink r:id="rId85" ref="C199"/>
+    <hyperlink r:id="rId86" ref="C200"/>
+    <hyperlink r:id="rId87" ref="C201"/>
+    <hyperlink r:id="rId88" ref="C202"/>
+    <hyperlink r:id="rId89" ref="C203"/>
+    <hyperlink r:id="rId90" ref="C204"/>
+    <hyperlink r:id="rId91" ref="C205"/>
+    <hyperlink r:id="rId92" ref="C206"/>
+    <hyperlink r:id="rId93" ref="C207"/>
+    <hyperlink r:id="rId94" ref="C208"/>
+    <hyperlink r:id="rId95" ref="C209"/>
+    <hyperlink r:id="rId96" ref="C210"/>
+    <hyperlink r:id="rId97" ref="C211"/>
+    <hyperlink r:id="rId98" ref="C212"/>
+    <hyperlink r:id="rId99" ref="C213"/>
+    <hyperlink r:id="rId100" ref="C214"/>
+    <hyperlink r:id="rId101" ref="C215"/>
+    <hyperlink r:id="rId102" ref="C216"/>
+    <hyperlink r:id="rId103" ref="C217"/>
+    <hyperlink r:id="rId104" ref="C218"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId105"/>
 </worksheet>
 </file>